--- a/CashFlow/ON_cashflow.xlsx
+++ b/CashFlow/ON_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5069000000.0</v>
+        <v>-26300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5050000000.0</v>
+        <v>-43900000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3798900000.0</v>
+        <v>-13400000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2510400000.0</v>
+        <v>15100000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1234000000.0</v>
+        <v>10200000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>3200000.0</v>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>34200000.0</v>
+        <v>2134000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1500000.0</v>
+        <v>2105000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>128500000.0</v>
+        <v>1699100000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>78400000.0</v>
+        <v>1140700000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-7600000.0</v>
+        <v>538300000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>22600000.0</v>
